--- a/Resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
+++ b/Resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="0" windowWidth="26310" windowHeight="13140"/>
+    <workbookView windowHeight="23320"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -29,30 +24,17 @@
     <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>key=Id     列表字段主键( 不填的话, 表示没有key, 用0代替 )
+key=Id     列表字段主键( 不填的话, 表示没有key, 用0代替 )
 channel=0   是否区分渠道, 默认不区分
 repeat=1  表示字段id可以重复
 cpp=xxxx cpp生成的类名( 不填表示不生成 )
@@ -62,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0">
+    <comment ref="B6" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刘小兵:</t>
@@ -78,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -88,14 +68,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0">
+    <comment ref="C6" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刘小兵:</t>
@@ -104,7 +83,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -117,14 +95,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="2" shapeId="0">
+    <comment ref="E44" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>杨鹏博:</t>
@@ -133,7 +110,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -146,24 +122,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+  <si>
+    <t>xml=constant</t>
+  </si>
+  <si>
+    <t>key=Int,Name</t>
+  </si>
+  <si>
+    <t>cpp=Constant</t>
+  </si>
+  <si>
+    <t>cpp</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>csharp</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
   <si>
     <t>配置说明</t>
   </si>
   <si>
+    <t>开服渠道</t>
+  </si>
+  <si>
+    <t>运营类型</t>
+  </si>
+  <si>
     <t>字段名(不能改这个字段)</t>
   </si>
   <si>
-    <t>键值</t>
-  </si>
-  <si>
     <t>设置数值</t>
   </si>
   <si>
-    <t>开服渠道</t>
-  </si>
-  <si>
-    <t>运营类型</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>玩家名字的最大长度</t>
   </si>
   <si>
     <t>playernamelength</t>
@@ -173,77 +188,19 @@
   </si>
   <si>
     <t>chatintervaltime</t>
-  </si>
-  <si>
-    <t>玩家名字的最大长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>csharp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lua</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Channel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>key=Int,Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml=constant</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpp=Constant</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -254,59 +211,179 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,42 +392,228 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF05FF6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF05FF6F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -373,9 +636,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -383,16 +888,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,80 +921,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -499,15 +1052,12 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF05FF6F"/>
+      <color rgb="0005FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -836,544 +1386,484 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="38.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="27.5" style="6" customWidth="1"/>
-    <col min="12" max="13" width="17.125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="19.125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="16.25" style="6" customWidth="1"/>
-    <col min="18" max="18" width="19.625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="16" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="38.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9" style="11" customWidth="1"/>
+    <col min="6" max="6" width="53.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="10" customWidth="1"/>
+    <col min="11" max="12" width="17.125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="19.125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="16.25" style="10" customWidth="1"/>
+    <col min="17" max="17" width="19.625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="16" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="26" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="14.4" spans="1:5">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:12">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:12">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" s="7" customFormat="1" spans="1:5">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="1:5">
+      <c r="A9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="27">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27">
-        <v>3</v>
-      </c>
-      <c r="C2" s="27">
-        <v>3</v>
-      </c>
-      <c r="D2" s="27">
-        <v>3</v>
-      </c>
-      <c r="E2" s="27">
-        <v>3</v>
-      </c>
-      <c r="F2" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
+      <c r="E9" s="14">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="7" customFormat="1" spans="1:5">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="1:5">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:5">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" s="7" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" s="7" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" s="7" customFormat="1" spans="1:5">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1" spans="1:5">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" spans="1:5">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" s="8" customFormat="1" spans="1:5">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" s="8" customFormat="1" spans="1:5">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" s="8" customFormat="1" spans="1:5">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" s="8" customFormat="1" spans="1:5">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" s="8" customFormat="1" spans="1:5">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" s="8" customFormat="1" spans="1:5">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" s="8" customFormat="1" spans="1:5">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="19"/>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" s="8" customFormat="1" spans="1:5">
+      <c r="A36" s="18"/>
       <c r="B36" s="17"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="19"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" s="8" customFormat="1" spans="1:5">
+      <c r="A37" s="18"/>
       <c r="B37" s="17"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="19"/>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" s="8" customFormat="1" spans="1:5">
+      <c r="A38" s="18"/>
       <c r="B38" s="17"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="19"/>
+      <c r="E38" s="27"/>
+    </row>
+    <row r="39" s="8" customFormat="1" spans="1:5">
+      <c r="A39" s="18"/>
       <c r="B39" s="17"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="19"/>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" s="8" customFormat="1" spans="1:5">
+      <c r="A40" s="18"/>
       <c r="B40" s="17"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" s="8" customFormat="1" spans="1:5">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="14"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="21"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="14"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="21"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F55" s="23"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F57" s="23"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="29"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="29"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="29"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="29"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="29"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="29"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="29"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="29"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="29"/>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="29"/>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" s="29"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
+++ b/Resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23320"/>
+    <workbookView windowHeight="23620"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>xml=constant</t>
   </si>
@@ -188,6 +188,24 @@
   </si>
   <si>
     <t>chatintervaltime</t>
+  </si>
+  <si>
+    <t>任务刷新的数量</t>
+  </si>
+  <si>
+    <t>refreshtaskcount</t>
+  </si>
+  <si>
+    <t>不能重复出现的任务品质</t>
+  </si>
+  <si>
+    <t>norepeatquality</t>
+  </si>
+  <si>
+    <t>任务刷新的权重池</t>
+  </si>
+  <si>
+    <t>refreshtaskpool</t>
   </si>
 </sst>
 </file>
@@ -196,9 +214,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -239,23 +257,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,21 +298,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,6 +309,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -299,91 +387,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,13 +446,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,169 +560,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +656,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,48 +665,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,150 +699,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1397,7 +1403,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1560,25 +1566,43 @@
       </c>
     </row>
     <row r="10" s="7" customFormat="1" spans="1:5">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="26">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" s="7" customFormat="1" spans="1:5">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="B11" s="15"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="26">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" s="7" customFormat="1" spans="1:5">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="B12" s="15"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" s="7" customFormat="1" spans="1:5">
       <c r="A13" s="14"/>

--- a/Resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
+++ b/Resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23620"/>
+    <workbookView windowHeight="24220"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>xml=constant</t>
   </si>
@@ -206,6 +206,15 @@
   </si>
   <si>
     <t>refreshtaskpool</t>
+  </si>
+  <si>
+    <t>任务刷新的消耗</t>
+  </si>
+  <si>
+    <t>refreshtaskcost</t>
+  </si>
+  <si>
+    <t>[{"money":"100"}]</t>
   </si>
 </sst>
 </file>
@@ -213,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -257,6 +266,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -265,39 +296,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,15 +328,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,7 +351,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,30 +359,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,20 +409,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -446,175 +455,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +665,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,22 +674,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,16 +736,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,145 +754,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1403,7 +1412,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1412,7 +1421,7 @@
     <col min="2" max="2" width="15" style="10" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="9" customWidth="1"/>
     <col min="4" max="4" width="23.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9" style="11" customWidth="1"/>
+    <col min="5" max="5" width="49.0288461538462" style="11" customWidth="1"/>
     <col min="6" max="6" width="53.125" style="10" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="18.875" style="10" customWidth="1"/>
@@ -1605,11 +1614,21 @@
       </c>
     </row>
     <row r="13" s="7" customFormat="1" spans="1:5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" s="7" customFormat="1" spans="1:5">
       <c r="A14" s="14"/>

--- a/Resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
+++ b/Resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="24220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="24225"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
     <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1">
+    <comment ref="B6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="1">
+    <comment ref="C6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="2">
+    <comment ref="E44" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>xml=constant</t>
   </si>
@@ -214,20 +219,15 @@
     <t>refreshtaskcost</t>
   </si>
   <si>
-    <t>[{"money":"100"}]</t>
+    <t>[{"item":{"id":"20001","count":"1"}}]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -256,161 +256,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,13 +285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,182 +313,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -651,251 +337,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,61 +435,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1067,12 +463,15 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1401,27 +800,26 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.375" style="9" customWidth="1"/>
     <col min="2" max="2" width="15" style="10" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="9" customWidth="1"/>
     <col min="4" max="4" width="23.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="49.0288461538462" style="11" customWidth="1"/>
+    <col min="5" max="5" width="49" style="11" customWidth="1"/>
     <col min="6" max="6" width="53.125" style="10" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="18.875" style="10" customWidth="1"/>
@@ -1437,7 +835,7 @@
     <col min="19" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14.4" spans="1:5">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1465,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1482,17 +880,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:1">
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:1">
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:12">
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +914,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:12">
+    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1540,7 +938,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:5">
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
@@ -1557,7 +955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:5">
+    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
@@ -1574,7 +972,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:5">
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" spans="1:5">
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
@@ -1600,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" spans="1:5">
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
@@ -1613,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" spans="1:5">
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -1630,284 +1028,285 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="1" spans="1:5">
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" s="7" customFormat="1" spans="1:5">
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="26"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="26"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="26"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="26"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="26"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="26"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" s="8" customFormat="1" spans="1:5">
+    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" s="8" customFormat="1" spans="1:5">
+    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" s="8" customFormat="1" spans="1:5">
+    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" s="8" customFormat="1" spans="1:5">
+    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="27"/>
     </row>
-    <row r="33" s="8" customFormat="1" spans="1:5">
+    <row r="33" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" s="8" customFormat="1" spans="1:5">
+    <row r="34" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="27"/>
     </row>
-    <row r="35" s="8" customFormat="1" spans="1:5">
+    <row r="35" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="27"/>
     </row>
-    <row r="36" s="8" customFormat="1" spans="1:5">
+    <row r="36" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18"/>
       <c r="B36" s="17"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="27"/>
     </row>
-    <row r="37" s="8" customFormat="1" spans="1:5">
+    <row r="37" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18"/>
       <c r="B37" s="17"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="27"/>
     </row>
-    <row r="38" s="8" customFormat="1" spans="1:5">
+    <row r="38" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18"/>
       <c r="B38" s="17"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="27"/>
     </row>
-    <row r="39" s="8" customFormat="1" spans="1:5">
+    <row r="39" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
       <c r="B39" s="17"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
       <c r="E39" s="27"/>
     </row>
-    <row r="40" s="8" customFormat="1" spans="1:5">
+    <row r="40" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
       <c r="B40" s="17"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
       <c r="E40" s="27"/>
     </row>
-    <row r="41" s="8" customFormat="1" spans="1:5">
+    <row r="41" spans="1:5" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="28"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="7"/>
       <c r="C42" s="19"/>
       <c r="D42" s="14"/>
       <c r="E42" s="26"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="7"/>
       <c r="C43" s="19"/>
       <c r="D43" s="14"/>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="29"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="29"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="29"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="29"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="29"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="29"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="29"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="29"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="29"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="29"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="29"/>
     </row>
-    <row r="55" spans="5:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E55" s="29"/>
     </row>
-    <row r="56" spans="5:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E56" s="29"/>
     </row>
-    <row r="57" spans="5:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E57" s="29"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>